--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4075.286477259644</v>
+        <v>4241.747632332345</v>
       </c>
       <c r="AB2" t="n">
-        <v>5575.986747137474</v>
+        <v>5803.746243255822</v>
       </c>
       <c r="AC2" t="n">
-        <v>5043.822397937014</v>
+        <v>5249.844847408279</v>
       </c>
       <c r="AD2" t="n">
-        <v>4075286.477259644</v>
+        <v>4241747.632332345</v>
       </c>
       <c r="AE2" t="n">
-        <v>5575986.747137474</v>
+        <v>5803746.243255822</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.478669071743534e-07</v>
+        <v>1.095251151272986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.27170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>5043822.397937014</v>
+        <v>5249844.847408279</v>
       </c>
     </row>
     <row r="3">
@@ -3033,28 +3033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1902.369112786135</v>
+        <v>2006.513954831944</v>
       </c>
       <c r="AB3" t="n">
-        <v>2602.905346716003</v>
+        <v>2745.400914149243</v>
       </c>
       <c r="AC3" t="n">
-        <v>2354.487713626026</v>
+        <v>2483.383704097222</v>
       </c>
       <c r="AD3" t="n">
-        <v>1902369.112786135</v>
+        <v>2006513.954831944</v>
       </c>
       <c r="AE3" t="n">
-        <v>2602905.346716003</v>
+        <v>2745400.914149243</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024598852764282e-06</v>
+        <v>1.732135197300727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.77647569444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2354487.713626026</v>
+        <v>2483383.704097222</v>
       </c>
     </row>
     <row r="4">
@@ -3139,28 +3139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1519.973970236554</v>
+        <v>1613.533735877189</v>
       </c>
       <c r="AB4" t="n">
-        <v>2079.695442596609</v>
+        <v>2207.708041511677</v>
       </c>
       <c r="AC4" t="n">
-        <v>1881.212228426074</v>
+        <v>1997.007484567499</v>
       </c>
       <c r="AD4" t="n">
-        <v>1519973.970236554</v>
+        <v>1613533.735877189</v>
       </c>
       <c r="AE4" t="n">
-        <v>2079695.442596609</v>
+        <v>2207708.041511677</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171837087756926e-06</v>
+        <v>1.981048738957666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1881212.228426074</v>
+        <v>1997007.484567499</v>
       </c>
     </row>
     <row r="5">
@@ -3245,28 +3245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1353.136969423365</v>
+        <v>1436.367591713991</v>
       </c>
       <c r="AB5" t="n">
-        <v>1851.421697754994</v>
+        <v>1965.301507048936</v>
       </c>
       <c r="AC5" t="n">
-        <v>1674.724609407929</v>
+        <v>1777.735889534174</v>
       </c>
       <c r="AD5" t="n">
-        <v>1353136.969423365</v>
+        <v>1436367.591713991</v>
       </c>
       <c r="AE5" t="n">
-        <v>1851421.697754994</v>
+        <v>1965301.507048936</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.247930405143739e-06</v>
+        <v>2.10968826746141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.23697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1674724.609407929</v>
+        <v>1777735.889534174</v>
       </c>
     </row>
     <row r="6">
@@ -3351,28 +3351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1240.653789011641</v>
+        <v>1323.969662648288</v>
       </c>
       <c r="AB6" t="n">
-        <v>1697.517247907982</v>
+        <v>1811.513701854573</v>
       </c>
       <c r="AC6" t="n">
-        <v>1535.508584248064</v>
+        <v>1638.625376625021</v>
       </c>
       <c r="AD6" t="n">
-        <v>1240653.789011641</v>
+        <v>1323969.662648288</v>
       </c>
       <c r="AE6" t="n">
-        <v>1697517.247907982</v>
+        <v>1811513.701854573</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.297414402953569e-06</v>
+        <v>2.193343420966913e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.61631944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1535508.584248064</v>
+        <v>1638625.376625021</v>
       </c>
     </row>
     <row r="7">
@@ -3457,28 +3457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1159.974860095149</v>
+        <v>1243.120141531203</v>
       </c>
       <c r="AB7" t="n">
-        <v>1587.128778061297</v>
+        <v>1700.891820233041</v>
       </c>
       <c r="AC7" t="n">
-        <v>1435.655435032357</v>
+        <v>1538.561092126662</v>
       </c>
       <c r="AD7" t="n">
-        <v>1159974.860095149</v>
+        <v>1243120.141531203</v>
       </c>
       <c r="AE7" t="n">
-        <v>1587128.778061297</v>
+        <v>1700891.820233041</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.333360325890898e-06</v>
+        <v>2.254111787192608e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1435655.435032357</v>
+        <v>1538561.092126662</v>
       </c>
     </row>
     <row r="8">
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1076.110721365262</v>
+        <v>1159.341254147336</v>
       </c>
       <c r="AB8" t="n">
-        <v>1472.382163626385</v>
+        <v>1586.261850450779</v>
       </c>
       <c r="AC8" t="n">
-        <v>1331.860076431228</v>
+        <v>1434.871245776246</v>
       </c>
       <c r="AD8" t="n">
-        <v>1076110.721365262</v>
+        <v>1159341.254147337</v>
       </c>
       <c r="AE8" t="n">
-        <v>1472382.163626385</v>
+        <v>1586261.850450779</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363144090610399e-06</v>
+        <v>2.304462719208184e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.86545138888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1331860.076431228</v>
+        <v>1434871.245776246</v>
       </c>
     </row>
     <row r="9">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1071.641723540131</v>
+        <v>1154.872256322205</v>
       </c>
       <c r="AB9" t="n">
-        <v>1466.267483643772</v>
+        <v>1580.147170468165</v>
       </c>
       <c r="AC9" t="n">
-        <v>1326.328972924148</v>
+        <v>1429.340142269165</v>
       </c>
       <c r="AD9" t="n">
-        <v>1071641.723540131</v>
+        <v>1154872.256322206</v>
       </c>
       <c r="AE9" t="n">
-        <v>1466267.483643772</v>
+        <v>1580147.170468165</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>2.30256864026089e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.87630208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1326328.972924147</v>
+        <v>1429340.142269165</v>
       </c>
     </row>
     <row r="10">
@@ -3775,28 +3775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1076.146223793492</v>
+        <v>1159.376756575566</v>
       </c>
       <c r="AB10" t="n">
-        <v>1472.430739614946</v>
+        <v>1586.310426439339</v>
       </c>
       <c r="AC10" t="n">
-        <v>1331.904016395617</v>
+        <v>1434.915185740634</v>
       </c>
       <c r="AD10" t="n">
-        <v>1076146.223793491</v>
+        <v>1159376.756575566</v>
       </c>
       <c r="AE10" t="n">
-        <v>1472430.739614946</v>
+        <v>1586310.426439339</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>2.30256864026089e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.87630208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1331904.016395617</v>
+        <v>1434915.185740634</v>
       </c>
     </row>
   </sheetData>
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2801.412488410937</v>
+        <v>2932.504619035098</v>
       </c>
       <c r="AB2" t="n">
-        <v>3833.016156240536</v>
+        <v>4012.382192737157</v>
       </c>
       <c r="AC2" t="n">
-        <v>3467.198473960757</v>
+        <v>3629.446067675947</v>
       </c>
       <c r="AD2" t="n">
-        <v>2801412.488410937</v>
+        <v>2932504.619035098</v>
       </c>
       <c r="AE2" t="n">
-        <v>3833016.156240535</v>
+        <v>4012382.192737157</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.971230653994403e-07</v>
+        <v>1.380450556516109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.29557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3467198.473960757</v>
+        <v>3629446.067675947</v>
       </c>
     </row>
     <row r="3">
@@ -4178,28 +4178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1511.423599748842</v>
+        <v>1602.153458997562</v>
       </c>
       <c r="AB3" t="n">
-        <v>2067.996448479597</v>
+        <v>2192.137044622589</v>
       </c>
       <c r="AC3" t="n">
-        <v>1870.629769887949</v>
+        <v>1982.922561767474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1511423.599748842</v>
+        <v>1602153.458997563</v>
       </c>
       <c r="AE3" t="n">
-        <v>2067996.448479597</v>
+        <v>2192137.044622589</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.1485024076899e-06</v>
+        <v>1.988966141710052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.25086805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1870629.769887949</v>
+        <v>1982922.561767474</v>
       </c>
     </row>
     <row r="4">
@@ -4284,28 +4284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1236.579122372195</v>
+        <v>1317.218413777056</v>
       </c>
       <c r="AB4" t="n">
-        <v>1691.942109250287</v>
+        <v>1802.276345304875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1530.465528999104</v>
+        <v>1630.269620419714</v>
       </c>
       <c r="AD4" t="n">
-        <v>1236579.122372195</v>
+        <v>1317218.413777056</v>
       </c>
       <c r="AE4" t="n">
-        <v>1691942.109250287</v>
+        <v>1802276.345304875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.280245514584948e-06</v>
+        <v>2.217117669528781e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.37152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1530465.528999104</v>
+        <v>1630269.620419714</v>
       </c>
     </row>
     <row r="5">
@@ -4390,28 +4390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1095.11593346056</v>
+        <v>1175.840476211441</v>
       </c>
       <c r="AB5" t="n">
-        <v>1498.385933265955</v>
+        <v>1608.836813973191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1355.382082792917</v>
+        <v>1455.291686464239</v>
       </c>
       <c r="AD5" t="n">
-        <v>1095115.93346056</v>
+        <v>1175840.476211441</v>
       </c>
       <c r="AE5" t="n">
-        <v>1498385.933265955</v>
+        <v>1608836.813973191</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350656603240734e-06</v>
+        <v>2.339054959689964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.51866319444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1355382.082792917</v>
+        <v>1455291.686464239</v>
       </c>
     </row>
     <row r="6">
@@ -4496,28 +4496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1004.109544561066</v>
+        <v>1074.743608976638</v>
       </c>
       <c r="AB6" t="n">
-        <v>1373.866977055148</v>
+        <v>1470.511620143528</v>
       </c>
       <c r="AC6" t="n">
-        <v>1242.747040999417</v>
+        <v>1330.168054993051</v>
       </c>
       <c r="AD6" t="n">
-        <v>1004109.544561066</v>
+        <v>1074743.608976638</v>
       </c>
       <c r="AE6" t="n">
-        <v>1373866.977055148</v>
+        <v>1470511.620143528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392188521103542e-06</v>
+        <v>2.410979561568303e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.05642361111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1242747.040999417</v>
+        <v>1330168.054993051</v>
       </c>
     </row>
     <row r="7">
@@ -4602,28 +4602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>983.7279855607387</v>
+        <v>1064.367187457048</v>
       </c>
       <c r="AB7" t="n">
-        <v>1345.980028859977</v>
+        <v>1456.314142445016</v>
       </c>
       <c r="AC7" t="n">
-        <v>1217.521584000416</v>
+        <v>1317.325564639799</v>
       </c>
       <c r="AD7" t="n">
-        <v>983727.9855607387</v>
+        <v>1064367.187457048</v>
       </c>
       <c r="AE7" t="n">
-        <v>1345980.028859977</v>
+        <v>1456314.142445016</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.397307571444772e-06</v>
+        <v>2.419844686916098e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>1217521.584000416</v>
+        <v>1317325.5646398</v>
       </c>
     </row>
   </sheetData>
@@ -4899,28 +4899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1059.902401963301</v>
+        <v>1141.855441131718</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.205225960037</v>
+        <v>1562.336989663184</v>
       </c>
       <c r="AC2" t="n">
-        <v>1311.799674570228</v>
+        <v>1413.229740123465</v>
       </c>
       <c r="AD2" t="n">
-        <v>1059902.401963301</v>
+        <v>1141855.441131718</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450205.225960037</v>
+        <v>1562336.989663184</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283501339243394e-06</v>
+        <v>2.42866073014173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.22265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1311799.674570228</v>
+        <v>1413229.740123465</v>
       </c>
     </row>
     <row r="3">
@@ -5005,28 +5005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>787.7358403163828</v>
+        <v>869.603449121678</v>
       </c>
       <c r="AB3" t="n">
-        <v>1077.814929173445</v>
+        <v>1189.829803284846</v>
       </c>
       <c r="AC3" t="n">
-        <v>974.9497850558848</v>
+        <v>1076.274116795957</v>
       </c>
       <c r="AD3" t="n">
-        <v>787735.8403163828</v>
+        <v>869603.4491216779</v>
       </c>
       <c r="AE3" t="n">
-        <v>1077814.929173445</v>
+        <v>1189829.803284846</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470384479914151e-06</v>
+        <v>2.782283847621431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.90711805555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>974949.7850558849</v>
+        <v>1076274.116795957</v>
       </c>
     </row>
   </sheetData>
@@ -5302,28 +5302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1533.675439105793</v>
+        <v>1638.053036819919</v>
       </c>
       <c r="AB2" t="n">
-        <v>2098.442396769648</v>
+        <v>2241.256430776733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1898.169999604353</v>
+        <v>2027.354062646558</v>
       </c>
       <c r="AD2" t="n">
-        <v>1533675.439105793</v>
+        <v>1638053.036819919</v>
       </c>
       <c r="AE2" t="n">
-        <v>2098442.396769647</v>
+        <v>2241256.430776733</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08611475509787e-06</v>
+        <v>1.978665207055246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.60112847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1898169.999604353</v>
+        <v>2027354.062646558</v>
       </c>
     </row>
     <row r="3">
@@ -5408,28 +5408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>978.2340716492924</v>
+        <v>1054.121866535052</v>
       </c>
       <c r="AB3" t="n">
-        <v>1338.46301347196</v>
+        <v>1442.296042367881</v>
       </c>
       <c r="AC3" t="n">
-        <v>1210.721982010834</v>
+        <v>1304.645332359499</v>
       </c>
       <c r="AD3" t="n">
-        <v>978234.0716492925</v>
+        <v>1054121.866535052</v>
       </c>
       <c r="AE3" t="n">
-        <v>1338463.013471961</v>
+        <v>1442296.042367881</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.37996581376779e-06</v>
+        <v>2.513998018912798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1210721.982010834</v>
+        <v>1304645.332359499</v>
       </c>
     </row>
     <row r="4">
@@ -5514,28 +5514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>857.2408193793947</v>
+        <v>933.0432734105821</v>
       </c>
       <c r="AB4" t="n">
-        <v>1172.914707870723</v>
+        <v>1276.630969644446</v>
       </c>
       <c r="AC4" t="n">
-        <v>1060.973374347672</v>
+        <v>1154.791101664398</v>
       </c>
       <c r="AD4" t="n">
-        <v>857240.8193793946</v>
+        <v>933043.2734105821</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172914.707870723</v>
+        <v>1276630.969644446</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452758391810233e-06</v>
+        <v>2.646610287394003e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.40147569444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1060973.374347672</v>
+        <v>1154791.101664398</v>
       </c>
     </row>
     <row r="5">
@@ -5620,28 +5620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>862.4933179039871</v>
+        <v>938.2957719351745</v>
       </c>
       <c r="AB5" t="n">
-        <v>1180.101408075951</v>
+        <v>1283.817669849674</v>
       </c>
       <c r="AC5" t="n">
-        <v>1067.47418597191</v>
+        <v>1161.291913288637</v>
       </c>
       <c r="AD5" t="n">
-        <v>862493.3179039871</v>
+        <v>938295.7719351745</v>
       </c>
       <c r="AE5" t="n">
-        <v>1180101.408075951</v>
+        <v>1283817.669849674</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.452655286175612e-06</v>
+        <v>2.646422451319666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.40364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1067474.18597191</v>
+        <v>1161291.913288637</v>
       </c>
     </row>
   </sheetData>
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>761.4441198615874</v>
+        <v>840.5826287106216</v>
       </c>
       <c r="AB2" t="n">
-        <v>1041.84143733835</v>
+        <v>1150.122236490202</v>
       </c>
       <c r="AC2" t="n">
-        <v>942.4095527924181</v>
+        <v>1040.356184446274</v>
       </c>
       <c r="AD2" t="n">
-        <v>761444.1198615874</v>
+        <v>840582.6287106216</v>
       </c>
       <c r="AE2" t="n">
-        <v>1041841.43733835</v>
+        <v>1150122.236490202</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448987947235668e-06</v>
+        <v>2.839549511987662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.76432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>942409.5527924182</v>
+        <v>1040356.184446274</v>
       </c>
     </row>
     <row r="3">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>751.5226498181796</v>
+        <v>830.661158667214</v>
       </c>
       <c r="AB3" t="n">
-        <v>1028.266444320593</v>
+        <v>1136.547243472445</v>
       </c>
       <c r="AC3" t="n">
-        <v>930.1301380556536</v>
+        <v>1028.076769709509</v>
       </c>
       <c r="AD3" t="n">
-        <v>751522.6498181797</v>
+        <v>830661.158667214</v>
       </c>
       <c r="AE3" t="n">
-        <v>1028266.444320593</v>
+        <v>1136547.243472445</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464434863938528e-06</v>
+        <v>2.869820491721483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>930130.1380556535</v>
+        <v>1028076.769709509</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3074.660612597584</v>
+        <v>3216.949911257217</v>
       </c>
       <c r="AB2" t="n">
-        <v>4206.886294609179</v>
+        <v>4401.572790396121</v>
       </c>
       <c r="AC2" t="n">
-        <v>3805.386971053517</v>
+        <v>3981.49286092676</v>
       </c>
       <c r="AD2" t="n">
-        <v>3074660.612597584</v>
+        <v>3216949.911257217</v>
       </c>
       <c r="AE2" t="n">
-        <v>4206886.294609179</v>
+        <v>4401572.790396121</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.575140855549913e-07</v>
+        <v>1.30328874845431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3805386.971053517</v>
+        <v>3981492.86092676</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1603.042198514212</v>
+        <v>1704.713922559801</v>
       </c>
       <c r="AB3" t="n">
-        <v>2193.35305723769</v>
+        <v>2332.464795516763</v>
       </c>
       <c r="AC3" t="n">
-        <v>1984.022519845274</v>
+        <v>2109.857629067544</v>
       </c>
       <c r="AD3" t="n">
-        <v>1603042.198514212</v>
+        <v>1704713.922559801</v>
       </c>
       <c r="AE3" t="n">
-        <v>2193353.05723769</v>
+        <v>2332464.795516763</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11540455382516e-06</v>
+        <v>1.919032573381106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.62196180555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1984022.519845274</v>
+        <v>2109857.629067544</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1304.877571101303</v>
+        <v>1396.373588656876</v>
       </c>
       <c r="AB4" t="n">
-        <v>1785.391059916355</v>
+        <v>1910.579947655301</v>
       </c>
       <c r="AC4" t="n">
-        <v>1614.995842970028</v>
+        <v>1728.236878966877</v>
       </c>
       <c r="AD4" t="n">
-        <v>1304877.571101303</v>
+        <v>1396373.588656876</v>
       </c>
       <c r="AE4" t="n">
-        <v>1785391.059916355</v>
+        <v>1910579.947655301</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.251037288122787e-06</v>
+        <v>2.152386143833438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.60373263888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1614995.842970028</v>
+        <v>1728236.878966877</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1159.198453254756</v>
+        <v>1240.604105174885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1586.066463969619</v>
+        <v>1697.449268290636</v>
       </c>
       <c r="AC5" t="n">
-        <v>1434.694506706621</v>
+        <v>1535.447092509988</v>
       </c>
       <c r="AD5" t="n">
-        <v>1159198.453254756</v>
+        <v>1240604.105174885</v>
       </c>
       <c r="AE5" t="n">
-        <v>1586066.463969619</v>
+        <v>1697449.268290636</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.322538807191473e-06</v>
+        <v>2.27540316368375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.70529513888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1434694.506706621</v>
+        <v>1535447.092509988</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1060.817852443457</v>
+        <v>1132.047887382121</v>
       </c>
       <c r="AB6" t="n">
-        <v>1451.457785693812</v>
+        <v>1548.91786194425</v>
       </c>
       <c r="AC6" t="n">
-        <v>1312.932691760991</v>
+        <v>1401.091315120163</v>
       </c>
       <c r="AD6" t="n">
-        <v>1060817.852443458</v>
+        <v>1132047.887382121</v>
       </c>
       <c r="AE6" t="n">
-        <v>1451457.785693812</v>
+        <v>1548917.86194425</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369249304253747e-06</v>
+        <v>2.355767696062535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.17144097222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1312932.691760991</v>
+        <v>1401091.315120163</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1006.423887338637</v>
+        <v>1087.744198404194</v>
       </c>
       <c r="AB7" t="n">
-        <v>1377.033562945017</v>
+        <v>1488.299600143837</v>
       </c>
       <c r="AC7" t="n">
-        <v>1245.611412376288</v>
+        <v>1346.258375147716</v>
       </c>
       <c r="AD7" t="n">
-        <v>1006423.887338637</v>
+        <v>1087744.198404194</v>
       </c>
       <c r="AE7" t="n">
-        <v>1377033.562945017</v>
+        <v>1488299.600143837</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.386478585957044e-06</v>
+        <v>2.385410351448152e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.98263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1245611.412376288</v>
+        <v>1346258.375147716</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1008.893253615688</v>
+        <v>1090.213564681245</v>
       </c>
       <c r="AB8" t="n">
-        <v>1380.41225882603</v>
+        <v>1491.67829602485</v>
       </c>
       <c r="AC8" t="n">
-        <v>1248.667650264447</v>
+        <v>1349.314613035875</v>
       </c>
       <c r="AD8" t="n">
-        <v>1008893.253615688</v>
+        <v>1090213.564681245</v>
       </c>
       <c r="AE8" t="n">
-        <v>1380412.25882603</v>
+        <v>1491678.29602485</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.388010077664004e-06</v>
+        <v>2.388045254149095e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1248667.650264447</v>
+        <v>1349314.613035875</v>
       </c>
     </row>
   </sheetData>
@@ -7253,28 +7253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.5372809999596</v>
+        <v>808.9239681456592</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000.921581011259</v>
+        <v>1106.805460423689</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.3950301218056</v>
+        <v>1001.173500692072</v>
       </c>
       <c r="AD2" t="n">
-        <v>731537.2809999597</v>
+        <v>808923.9681456592</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000921.581011259</v>
+        <v>1106805.460423689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.443691324661131e-06</v>
+        <v>2.894110794598187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21788194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>905395.0301218056</v>
+        <v>1001173.500692072</v>
       </c>
     </row>
   </sheetData>
@@ -7550,28 +7550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2101.255868020063</v>
+        <v>2218.856296751253</v>
       </c>
       <c r="AB2" t="n">
-        <v>2875.030979491448</v>
+        <v>3035.93707424639</v>
       </c>
       <c r="AC2" t="n">
-        <v>2600.642057940107</v>
+        <v>2746.191500844644</v>
       </c>
       <c r="AD2" t="n">
-        <v>2101255.868020063</v>
+        <v>2218856.296751253</v>
       </c>
       <c r="AE2" t="n">
-        <v>2875030.979491448</v>
+        <v>3035937.07424639</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.288577063168019e-07</v>
+        <v>1.645076018423634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.25086805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2600642.057940107</v>
+        <v>2746191.500844644</v>
       </c>
     </row>
     <row r="3">
@@ -7656,28 +7656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1241.667689251941</v>
+        <v>1329.825362750184</v>
       </c>
       <c r="AB3" t="n">
-        <v>1698.904510946883</v>
+        <v>1819.525729069244</v>
       </c>
       <c r="AC3" t="n">
-        <v>1536.763448849568</v>
+        <v>1645.872747207274</v>
       </c>
       <c r="AD3" t="n">
-        <v>1241667.689251941</v>
+        <v>1329825.362750184</v>
       </c>
       <c r="AE3" t="n">
-        <v>1698904.510946883</v>
+        <v>1819525.729069244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254962988468094e-06</v>
+        <v>2.222632704986121e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.20703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1536763.448849568</v>
+        <v>1645872.747207274</v>
       </c>
     </row>
     <row r="4">
@@ -7762,28 +7762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1020.904868264951</v>
+        <v>1099.41888221947</v>
       </c>
       <c r="AB4" t="n">
-        <v>1396.84707990419</v>
+        <v>1504.273417590598</v>
       </c>
       <c r="AC4" t="n">
-        <v>1263.533955085323</v>
+        <v>1360.707673876752</v>
       </c>
       <c r="AD4" t="n">
-        <v>1020904.868264951</v>
+        <v>1099418.88221947</v>
       </c>
       <c r="AE4" t="n">
-        <v>1396847.07990419</v>
+        <v>1504273.417590598</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37427950763178e-06</v>
+        <v>2.433951126465652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.71397569444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1263533.955085323</v>
+        <v>1360707.673876752</v>
       </c>
     </row>
     <row r="5">
@@ -7868,28 +7868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>925.6302767085091</v>
+        <v>994.3301284272648</v>
       </c>
       <c r="AB5" t="n">
-        <v>1266.488180518336</v>
+        <v>1360.48634846349</v>
       </c>
       <c r="AC5" t="n">
-        <v>1145.616326096991</v>
+        <v>1230.643440820717</v>
       </c>
       <c r="AD5" t="n">
-        <v>925630.2767085091</v>
+        <v>994330.1284272647</v>
       </c>
       <c r="AE5" t="n">
-        <v>1266488.180518336</v>
+        <v>1360486.34846349</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.424832294733658e-06</v>
+        <v>2.523483868843968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1145616.326096991</v>
+        <v>1230643.440820717</v>
       </c>
     </row>
     <row r="6">
@@ -7974,28 +7974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>930.1105328729309</v>
+        <v>998.8103845916866</v>
       </c>
       <c r="AB6" t="n">
-        <v>1272.61826465745</v>
+        <v>1366.616432602605</v>
       </c>
       <c r="AC6" t="n">
-        <v>1151.161363609495</v>
+        <v>1236.188478333221</v>
       </c>
       <c r="AD6" t="n">
-        <v>930110.5328729309</v>
+        <v>998810.3845916865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1272618.26465745</v>
+        <v>1366616.432602605</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425628401617153e-06</v>
+        <v>2.524893833290871e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.14756944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1151161.363609495</v>
+        <v>1236188.478333221</v>
       </c>
     </row>
   </sheetData>
@@ -8271,28 +8271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2550.104261469698</v>
+        <v>2679.96216128884</v>
       </c>
       <c r="AB2" t="n">
-        <v>3489.165153203016</v>
+        <v>3666.842460661789</v>
       </c>
       <c r="AC2" t="n">
-        <v>3156.164128055238</v>
+        <v>3316.884162661805</v>
       </c>
       <c r="AD2" t="n">
-        <v>2550104.261469698</v>
+        <v>2679962.161288839</v>
       </c>
       <c r="AE2" t="n">
-        <v>3489165.153203016</v>
+        <v>3666842.460661788</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.387231049120222e-07</v>
+        <v>1.462659858332369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.23003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3156164.128055238</v>
+        <v>3316884.162661805</v>
       </c>
     </row>
     <row r="3">
@@ -8377,28 +8377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1415.143217768328</v>
+        <v>1514.994452997441</v>
       </c>
       <c r="AB3" t="n">
-        <v>1936.261382263186</v>
+        <v>2072.882247429259</v>
       </c>
       <c r="AC3" t="n">
-        <v>1751.467313499905</v>
+        <v>1875.049275043116</v>
       </c>
       <c r="AD3" t="n">
-        <v>1415143.217768328</v>
+        <v>1514994.452997441</v>
       </c>
       <c r="AE3" t="n">
-        <v>1936261.382263186</v>
+        <v>2072882.247429259</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181447089307018e-06</v>
+        <v>2.06034056073161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.91015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1751467.313499904</v>
+        <v>1875049.275043116</v>
       </c>
     </row>
     <row r="4">
@@ -8483,28 +8483,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1168.166790363176</v>
+        <v>1248.09907256776</v>
       </c>
       <c r="AB4" t="n">
-        <v>1598.337338456468</v>
+        <v>1707.704213332193</v>
       </c>
       <c r="AC4" t="n">
-        <v>1445.794266154726</v>
+        <v>1544.723319989685</v>
       </c>
       <c r="AD4" t="n">
-        <v>1168166.790363176</v>
+        <v>1248099.07256776</v>
       </c>
       <c r="AE4" t="n">
-        <v>1598337.338456468</v>
+        <v>1707704.213332193</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.310151402081242e-06</v>
+        <v>2.284789643851667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.15017361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1445794.266154726</v>
+        <v>1544723.319989685</v>
       </c>
     </row>
     <row r="5">
@@ -8589,28 +8589,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1031.649208345292</v>
+        <v>1111.496149695305</v>
       </c>
       <c r="AB5" t="n">
-        <v>1411.547960008944</v>
+        <v>1520.798067762471</v>
       </c>
       <c r="AC5" t="n">
-        <v>1276.831803825694</v>
+        <v>1375.655234628714</v>
       </c>
       <c r="AD5" t="n">
-        <v>1031649.208345292</v>
+        <v>1111496.149695305</v>
       </c>
       <c r="AE5" t="n">
-        <v>1411547.960008944</v>
+        <v>1520798.067762472</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378696198960241e-06</v>
+        <v>2.404325784331516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1276831.803825694</v>
+        <v>1375655.234628714</v>
       </c>
     </row>
     <row r="6">
@@ -8695,28 +8695,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>970.9489863327227</v>
+        <v>1040.964417698053</v>
       </c>
       <c r="AB6" t="n">
-        <v>1328.495238346549</v>
+        <v>1424.293440403425</v>
       </c>
       <c r="AC6" t="n">
-        <v>1201.705517353531</v>
+        <v>1288.36087345972</v>
       </c>
       <c r="AD6" t="n">
-        <v>970948.9863327227</v>
+        <v>1040964.417698053</v>
       </c>
       <c r="AE6" t="n">
-        <v>1328495.238346549</v>
+        <v>1424293.440403425</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.406192120325643e-06</v>
+        <v>2.4522762702708e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.04774305555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1201705.517353531</v>
+        <v>1288360.87345972</v>
       </c>
     </row>
     <row r="7">
@@ -8801,28 +8801,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>975.6354361231688</v>
+        <v>1045.650867488499</v>
       </c>
       <c r="AB7" t="n">
-        <v>1334.90744570141</v>
+        <v>1430.705647758286</v>
       </c>
       <c r="AC7" t="n">
-        <v>1207.505752638034</v>
+        <v>1294.161108744223</v>
       </c>
       <c r="AD7" t="n">
-        <v>975635.4361231688</v>
+        <v>1045650.867488499</v>
       </c>
       <c r="AE7" t="n">
-        <v>1334907.44570141</v>
+        <v>1430705.647758286</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.40580210725663e-06</v>
+        <v>2.451596121534073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1207505.752638034</v>
+        <v>1294161.108744223</v>
       </c>
     </row>
   </sheetData>
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3702.929723285502</v>
+        <v>3868.157846757948</v>
       </c>
       <c r="AB2" t="n">
-        <v>5066.511809129413</v>
+        <v>5292.584217014777</v>
       </c>
       <c r="AC2" t="n">
-        <v>4582.971032959895</v>
+        <v>4787.46740753129</v>
       </c>
       <c r="AD2" t="n">
-        <v>3702929.723285502</v>
+        <v>3868157.846757948</v>
       </c>
       <c r="AE2" t="n">
-        <v>5066511.809129412</v>
+        <v>5292584.217014777</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.828796108627967e-07</v>
+        <v>1.160850079679015e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.90668402777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4582971.032959894</v>
+        <v>4787467.407531289</v>
       </c>
     </row>
     <row r="3">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1800.081047282171</v>
+        <v>1903.284708320072</v>
       </c>
       <c r="AB3" t="n">
-        <v>2462.950302862516</v>
+        <v>2604.158104918761</v>
       </c>
       <c r="AC3" t="n">
-        <v>2227.889782729776</v>
+        <v>2355.620910344169</v>
       </c>
       <c r="AD3" t="n">
-        <v>1800081.047282171</v>
+        <v>1903284.708320072</v>
       </c>
       <c r="AE3" t="n">
-        <v>2462950.302862516</v>
+        <v>2604158.104918761</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.054811835522357e-06</v>
+        <v>1.793110211279272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.36197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2227889.782729777</v>
+        <v>2355620.910344169</v>
       </c>
     </row>
     <row r="4">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1453.295227131003</v>
+        <v>1535.99471923035</v>
       </c>
       <c r="AB4" t="n">
-        <v>1988.46264462106</v>
+        <v>2101.615738155483</v>
       </c>
       <c r="AC4" t="n">
-        <v>1798.686560643275</v>
+        <v>1901.040481742137</v>
       </c>
       <c r="AD4" t="n">
-        <v>1453295.227131004</v>
+        <v>1535994.71923035</v>
       </c>
       <c r="AE4" t="n">
-        <v>1988462.64462106</v>
+        <v>2101615.738155483</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196262780275222e-06</v>
+        <v>2.03356744250275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.07248263888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1798686.560643276</v>
+        <v>1901040.481742137</v>
       </c>
     </row>
     <row r="5">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1288.54456756823</v>
+        <v>1371.158718813004</v>
       </c>
       <c r="AB5" t="n">
-        <v>1763.043523921144</v>
+        <v>1876.079850333368</v>
       </c>
       <c r="AC5" t="n">
-        <v>1594.781124445236</v>
+        <v>1697.029422512158</v>
       </c>
       <c r="AD5" t="n">
-        <v>1288544.56756823</v>
+        <v>1371158.718813004</v>
       </c>
       <c r="AE5" t="n">
-        <v>1763043.523921143</v>
+        <v>1876079.850333368</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.27362317720593e-06</v>
+        <v>2.165074990117985e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.03732638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1594781.124445236</v>
+        <v>1697029.422512158</v>
       </c>
     </row>
     <row r="6">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1181.547972078761</v>
+        <v>1264.076782468963</v>
       </c>
       <c r="AB6" t="n">
-        <v>1616.646061615805</v>
+        <v>1729.565620905832</v>
       </c>
       <c r="AC6" t="n">
-        <v>1462.35563047219</v>
+        <v>1564.498305507173</v>
       </c>
       <c r="AD6" t="n">
-        <v>1181547.972078761</v>
+        <v>1264076.782468963</v>
       </c>
       <c r="AE6" t="n">
-        <v>1616646.061615805</v>
+        <v>1729565.620905832</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.320585267313501e-06</v>
+        <v>2.244907430823585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.46657986111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1462355.63047219</v>
+        <v>1564498.305507174</v>
       </c>
     </row>
     <row r="7">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1100.979214154879</v>
+        <v>1173.341280930376</v>
       </c>
       <c r="AB7" t="n">
-        <v>1506.40833258161</v>
+        <v>1605.417304732924</v>
       </c>
       <c r="AC7" t="n">
-        <v>1362.638835577395</v>
+        <v>1452.198530386552</v>
       </c>
       <c r="AD7" t="n">
-        <v>1100979.214154879</v>
+        <v>1173341.280930376</v>
       </c>
       <c r="AE7" t="n">
-        <v>1506408.33258161</v>
+        <v>1605417.304732924</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.354842182742671e-06</v>
+        <v>2.303141916628872e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.07378472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1362638.835577395</v>
+        <v>1452198.530386552</v>
       </c>
     </row>
     <row r="8">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1052.186420428946</v>
+        <v>1134.800482165169</v>
       </c>
       <c r="AB8" t="n">
-        <v>1439.647879619652</v>
+        <v>1552.684083562327</v>
       </c>
       <c r="AC8" t="n">
-        <v>1302.24990654724</v>
+        <v>1404.498093832936</v>
       </c>
       <c r="AD8" t="n">
-        <v>1052186.420428946</v>
+        <v>1134800.482165169</v>
       </c>
       <c r="AE8" t="n">
-        <v>1439647.879619651</v>
+        <v>1552684.083562328</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.368112031851223e-06</v>
+        <v>2.325699780635864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.92838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1302249.90654724</v>
+        <v>1404498.093832936</v>
       </c>
     </row>
     <row r="9">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1056.893959309115</v>
+        <v>1139.508021045338</v>
       </c>
       <c r="AB9" t="n">
-        <v>1446.088941997456</v>
+        <v>1559.125145940132</v>
       </c>
       <c r="AC9" t="n">
-        <v>1308.076242971796</v>
+        <v>1410.324430257491</v>
       </c>
       <c r="AD9" t="n">
-        <v>1056893.959309115</v>
+        <v>1139508.021045338</v>
       </c>
       <c r="AE9" t="n">
-        <v>1446088.941997456</v>
+        <v>1559125.145940132</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.367547357421072e-06</v>
+        <v>2.324739871529184e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.93489583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1308076.242971796</v>
+        <v>1410324.430257491</v>
       </c>
     </row>
   </sheetData>
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1712.536611361988</v>
+        <v>1818.05562913409</v>
       </c>
       <c r="AB2" t="n">
-        <v>2343.168143448589</v>
+        <v>2487.543918734897</v>
       </c>
       <c r="AC2" t="n">
-        <v>2119.539464494998</v>
+        <v>2250.136218420655</v>
       </c>
       <c r="AD2" t="n">
-        <v>1712536.611361988</v>
+        <v>1818055.62913409</v>
       </c>
       <c r="AE2" t="n">
-        <v>2343168.143448588</v>
+        <v>2487543.918734896</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02975919714007e-06</v>
+        <v>1.856899514600713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.45616319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2119539.464494999</v>
+        <v>2250136.218420655</v>
       </c>
     </row>
     <row r="3">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1062.059346203102</v>
+        <v>1148.447322598916</v>
       </c>
       <c r="AB3" t="n">
-        <v>1453.156452226596</v>
+        <v>1571.356292699889</v>
       </c>
       <c r="AC3" t="n">
-        <v>1314.469239943979</v>
+        <v>1421.388253537019</v>
       </c>
       <c r="AD3" t="n">
-        <v>1062059.346203102</v>
+        <v>1148447.322598916</v>
       </c>
       <c r="AE3" t="n">
-        <v>1453156.452226596</v>
+        <v>1571356.292699889</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336324843035734e-06</v>
+        <v>2.409709919827403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.53428819444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1314469.239943979</v>
+        <v>1421388.253537019</v>
       </c>
     </row>
     <row r="4">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>886.1027393804012</v>
+        <v>962.7973180690408</v>
       </c>
       <c r="AB4" t="n">
-        <v>1212.404860114146</v>
+        <v>1317.341766201957</v>
       </c>
       <c r="AC4" t="n">
-        <v>1096.694641885759</v>
+        <v>1191.616516936422</v>
       </c>
       <c r="AD4" t="n">
-        <v>886102.7393804012</v>
+        <v>962797.3180690408</v>
       </c>
       <c r="AE4" t="n">
-        <v>1212404.860114146</v>
+        <v>1317341.766201957</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.440278188920647e-06</v>
+        <v>2.597162401971691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.34071180555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1096694.641885759</v>
+        <v>1191616.516936422</v>
       </c>
     </row>
     <row r="5">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>882.7070014616991</v>
+        <v>959.4015801503388</v>
       </c>
       <c r="AB5" t="n">
-        <v>1207.758661684393</v>
+        <v>1312.695567772204</v>
       </c>
       <c r="AC5" t="n">
-        <v>1092.491870113162</v>
+        <v>1187.413745163825</v>
       </c>
       <c r="AD5" t="n">
-        <v>882707.001461699</v>
+        <v>959401.5801503387</v>
       </c>
       <c r="AE5" t="n">
-        <v>1207758.661684393</v>
+        <v>1312695.567772205</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444452613192226e-06</v>
+        <v>2.604689876768866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.29730902777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1092491.870113162</v>
+        <v>1187413.745163825</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1215.483045221625</v>
+        <v>1298.748619225462</v>
       </c>
       <c r="AB2" t="n">
-        <v>1663.077525799638</v>
+        <v>1777.005157569556</v>
       </c>
       <c r="AC2" t="n">
-        <v>1504.355740881288</v>
+        <v>1607.41027937352</v>
       </c>
       <c r="AD2" t="n">
-        <v>1215483.045221625</v>
+        <v>1298748.619225462</v>
       </c>
       <c r="AE2" t="n">
-        <v>1663077.525799638</v>
+        <v>1777005.157569556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.21117910734458e-06</v>
+        <v>2.25967306969904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.00173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1504355.740881287</v>
+        <v>1607410.27937352</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.8633158236051</v>
+        <v>886.877079819415</v>
       </c>
       <c r="AB3" t="n">
-        <v>1112.195449708409</v>
+        <v>1213.464346864293</v>
       </c>
       <c r="AC3" t="n">
-        <v>1006.049076964355</v>
+        <v>1097.653012707472</v>
       </c>
       <c r="AD3" t="n">
-        <v>812863.3158236052</v>
+        <v>886877.079819415</v>
       </c>
       <c r="AE3" t="n">
-        <v>1112195.449708409</v>
+        <v>1213464.346864293</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464126758046579e-06</v>
+        <v>2.731592533029356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.72048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1006049.076964355</v>
+        <v>1097653.012707472</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>814.9776450217249</v>
+        <v>888.991409017535</v>
       </c>
       <c r="AB4" t="n">
-        <v>1115.088368194898</v>
+        <v>1216.357265350782</v>
       </c>
       <c r="AC4" t="n">
-        <v>1008.66589937073</v>
+        <v>1100.269835113847</v>
       </c>
       <c r="AD4" t="n">
-        <v>814977.645021725</v>
+        <v>888991.409017535</v>
       </c>
       <c r="AE4" t="n">
-        <v>1115088.368194898</v>
+        <v>1216357.265350782</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.46614185463498e-06</v>
+        <v>2.735352059152323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69878472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1008665.89937073</v>
+        <v>1100269.835113847</v>
       </c>
     </row>
   </sheetData>
@@ -19362,28 +19362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>905.3365259664116</v>
+        <v>985.8673375842537</v>
       </c>
       <c r="AB2" t="n">
-        <v>1238.721375455902</v>
+        <v>1348.907184680101</v>
       </c>
       <c r="AC2" t="n">
-        <v>1120.49954593876</v>
+        <v>1220.169376177355</v>
       </c>
       <c r="AD2" t="n">
-        <v>905336.5259664116</v>
+        <v>985867.3375842537</v>
       </c>
       <c r="AE2" t="n">
-        <v>1238721.375455902</v>
+        <v>1348907.184680101</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.365363641670717e-06</v>
+        <v>2.625644915542521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.43706597222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1120499.54593876</v>
+        <v>1220169.376177355</v>
       </c>
     </row>
     <row r="3">
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>774.8688112519762</v>
+        <v>846.5181410778973</v>
       </c>
       <c r="AB3" t="n">
-        <v>1060.209692354265</v>
+        <v>1158.243466367434</v>
       </c>
       <c r="AC3" t="n">
-        <v>959.024767329622</v>
+        <v>1047.70233554224</v>
       </c>
       <c r="AD3" t="n">
-        <v>774868.8112519763</v>
+        <v>846518.1410778973</v>
       </c>
       <c r="AE3" t="n">
-        <v>1060209.692354265</v>
+        <v>1158243.466367434</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470138432976103e-06</v>
+        <v>2.827130724650042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.19574652777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>959024.7673296221</v>
+        <v>1047702.33554224</v>
       </c>
     </row>
   </sheetData>
@@ -19765,28 +19765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.5447660391159</v>
+        <v>794.078115444019</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.1446488525258</v>
+        <v>1086.492709804508</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.3147034182211</v>
+        <v>982.7993704828609</v>
       </c>
       <c r="AD2" t="n">
-        <v>718544.7660391158</v>
+        <v>794078.115444019</v>
       </c>
       <c r="AE2" t="n">
-        <v>983144.6488525259</v>
+        <v>1086492.709804508</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.397154226557098e-06</v>
+        <v>2.881769359535758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>889314.7034182211</v>
+        <v>982799.3704828609</v>
       </c>
     </row>
   </sheetData>
@@ -20062,28 +20062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2316.867302843631</v>
+        <v>2435.704763139859</v>
       </c>
       <c r="AB2" t="n">
-        <v>3170.040056722409</v>
+        <v>3332.638712638452</v>
       </c>
       <c r="AC2" t="n">
-        <v>2867.495882887865</v>
+        <v>3014.576351291922</v>
       </c>
       <c r="AD2" t="n">
-        <v>2316867.302843631</v>
+        <v>2435704.763139859</v>
       </c>
       <c r="AE2" t="n">
-        <v>3170040.056722409</v>
+        <v>3332638.712638453</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.826460375882924e-07</v>
+        <v>1.550774269619692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.21006944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2867495.882887865</v>
+        <v>3014576.351291922</v>
       </c>
     </row>
     <row r="3">
@@ -20168,28 +20168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1327.78850416648</v>
+        <v>1416.980537898166</v>
       </c>
       <c r="AB3" t="n">
-        <v>1816.738809295161</v>
+        <v>1938.775284721673</v>
       </c>
       <c r="AC3" t="n">
-        <v>1643.351807144964</v>
+        <v>1753.741292636038</v>
       </c>
       <c r="AD3" t="n">
-        <v>1327788.50416648</v>
+        <v>1416980.537898166</v>
       </c>
       <c r="AE3" t="n">
-        <v>1816738.809295161</v>
+        <v>1938775.284721673</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.217269627427076e-06</v>
+        <v>2.13869471681011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.55642361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1643351.807144964</v>
+        <v>1753741.292636038</v>
       </c>
     </row>
     <row r="4">
@@ -20274,28 +20274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1090.430106676584</v>
+        <v>1179.451458699127</v>
       </c>
       <c r="AB4" t="n">
-        <v>1491.974578336031</v>
+        <v>1613.777519518148</v>
       </c>
       <c r="AC4" t="n">
-        <v>1349.582618579112</v>
+        <v>1459.760858006309</v>
       </c>
       <c r="AD4" t="n">
-        <v>1090430.106676584</v>
+        <v>1179451.458699127</v>
       </c>
       <c r="AE4" t="n">
-        <v>1491974.578336031</v>
+        <v>1613777.519518147</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.340857798482895e-06</v>
+        <v>2.355834258076729e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1349582.618579112</v>
+        <v>1459760.858006309</v>
       </c>
     </row>
     <row r="5">
@@ -20380,28 +20380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>968.1474112412047</v>
+        <v>1047.258626802111</v>
       </c>
       <c r="AB5" t="n">
-        <v>1324.661999709564</v>
+        <v>1432.905454980505</v>
       </c>
       <c r="AC5" t="n">
-        <v>1198.238117632076</v>
+        <v>1296.150969452602</v>
       </c>
       <c r="AD5" t="n">
-        <v>968147.4112412047</v>
+        <v>1047258.626802111</v>
       </c>
       <c r="AE5" t="n">
-        <v>1324661.999709564</v>
+        <v>1432905.454980505</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406738664169224e-06</v>
+        <v>2.471584340233996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.19097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1198238.117632076</v>
+        <v>1296150.969452602</v>
       </c>
     </row>
     <row r="6">
@@ -20486,28 +20486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>950.4726232213017</v>
+        <v>1019.844294521165</v>
       </c>
       <c r="AB6" t="n">
-        <v>1300.478574984118</v>
+        <v>1395.395956118731</v>
       </c>
       <c r="AC6" t="n">
-        <v>1176.362725020776</v>
+        <v>1262.221324517283</v>
       </c>
       <c r="AD6" t="n">
-        <v>950472.6232213017</v>
+        <v>1019844.294521165</v>
       </c>
       <c r="AE6" t="n">
-        <v>1300478.574984118</v>
+        <v>1395395.956118731</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.415601560898327e-06</v>
+        <v>2.487156100165467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.09765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1176362.725020776</v>
+        <v>1262221.324517283</v>
       </c>
     </row>
   </sheetData>
@@ -20783,28 +20783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3375.914894731563</v>
+        <v>3529.698155463225</v>
       </c>
       <c r="AB2" t="n">
-        <v>4619.07569382585</v>
+        <v>4829.488735597564</v>
       </c>
       <c r="AC2" t="n">
-        <v>4178.23759252039</v>
+        <v>4368.569108901962</v>
       </c>
       <c r="AD2" t="n">
-        <v>3375914.894731564</v>
+        <v>3529698.155463225</v>
       </c>
       <c r="AE2" t="n">
-        <v>4619075.69382585</v>
+        <v>4829488.735597564</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.19210831995068e-07</v>
+        <v>1.229770372133563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.63498263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4178237.59252039</v>
+        <v>4368569.108901962</v>
       </c>
     </row>
     <row r="3">
@@ -20889,28 +20889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1694.006869332993</v>
+        <v>1796.500596202577</v>
       </c>
       <c r="AB3" t="n">
-        <v>2317.814932929993</v>
+        <v>2458.051371737061</v>
       </c>
       <c r="AC3" t="n">
-        <v>2096.605928804844</v>
+        <v>2223.458398715243</v>
       </c>
       <c r="AD3" t="n">
-        <v>1694006.869332993</v>
+        <v>1796500.596202577</v>
       </c>
       <c r="AE3" t="n">
-        <v>2317814.932929993</v>
+        <v>2458051.371737061</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084747198909569e-06</v>
+        <v>1.854796823308981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2096605.928804844</v>
+        <v>2223458.398715243</v>
       </c>
     </row>
     <row r="4">
@@ -20995,28 +20995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1374.559956238362</v>
+        <v>1466.795776335531</v>
       </c>
       <c r="AB4" t="n">
-        <v>1880.733573430748</v>
+        <v>2006.934691644889</v>
       </c>
       <c r="AC4" t="n">
-        <v>1701.239000808665</v>
+        <v>1815.395661424831</v>
       </c>
       <c r="AD4" t="n">
-        <v>1374559.956238362</v>
+        <v>1466795.776335531</v>
       </c>
       <c r="AE4" t="n">
-        <v>1880733.573430748</v>
+        <v>2006934.69164489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222629945827214e-06</v>
+        <v>2.090560954554536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.84244791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1701239.000808665</v>
+        <v>1815395.661424831</v>
       </c>
     </row>
     <row r="5">
@@ -21101,28 +21101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1222.633245787844</v>
+        <v>1314.783725030441</v>
       </c>
       <c r="AB5" t="n">
-        <v>1672.860745658925</v>
+        <v>1798.945096750869</v>
       </c>
       <c r="AC5" t="n">
-        <v>1513.20526396804</v>
+        <v>1627.256301552267</v>
       </c>
       <c r="AD5" t="n">
-        <v>1222633.245787844</v>
+        <v>1314783.725030441</v>
       </c>
       <c r="AE5" t="n">
-        <v>1672860.745658925</v>
+        <v>1798945.096750869</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295699261124246e-06</v>
+        <v>2.215501340692924e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.89409722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1513205.26396804</v>
+        <v>1627256.301552267</v>
       </c>
     </row>
     <row r="6">
@@ -21207,28 +21207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1122.681805528381</v>
+        <v>1204.574467507113</v>
       </c>
       <c r="AB6" t="n">
-        <v>1536.102775549594</v>
+        <v>1648.15192851816</v>
       </c>
       <c r="AC6" t="n">
-        <v>1389.499282584926</v>
+        <v>1490.854621656146</v>
       </c>
       <c r="AD6" t="n">
-        <v>1122681.805528381</v>
+        <v>1204574.467507113</v>
       </c>
       <c r="AE6" t="n">
-        <v>1536102.775549594</v>
+        <v>1648151.92851816</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.343811134962681e-06</v>
+        <v>2.297767283254175e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.32552083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1389499.282584926</v>
+        <v>1490854.621656146</v>
       </c>
     </row>
     <row r="7">
@@ -21313,28 +21313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1034.831221623414</v>
+        <v>1116.809134948167</v>
       </c>
       <c r="AB7" t="n">
-        <v>1415.901730956589</v>
+        <v>1528.067528577804</v>
       </c>
       <c r="AC7" t="n">
-        <v>1280.770056984651</v>
+        <v>1382.230908306584</v>
       </c>
       <c r="AD7" t="n">
-        <v>1034831.221623414</v>
+        <v>1116809.134948167</v>
       </c>
       <c r="AE7" t="n">
-        <v>1415901.730956589</v>
+        <v>1528067.528577804</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.376265298380323e-06</v>
+        <v>2.353260285928627e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.96310763888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1280770.056984651</v>
+        <v>1382230.908306584</v>
       </c>
     </row>
     <row r="8">
@@ -21419,28 +21419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1030.337607727265</v>
+        <v>1112.315521052018</v>
       </c>
       <c r="AB8" t="n">
-        <v>1409.753370179624</v>
+        <v>1521.919167800839</v>
       </c>
       <c r="AC8" t="n">
-        <v>1275.208487130962</v>
+        <v>1376.669338452893</v>
       </c>
       <c r="AD8" t="n">
-        <v>1030337.607727265</v>
+        <v>1112315.521052018</v>
       </c>
       <c r="AE8" t="n">
-        <v>1409753.370179624</v>
+        <v>1521919.167800839</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37797341224441e-06</v>
+        <v>2.356180970279915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.94574652777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1275208.487130962</v>
+        <v>1376669.338452894</v>
       </c>
     </row>
   </sheetData>
@@ -21716,28 +21716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>717.3501159041575</v>
+        <v>806.7819881838059</v>
       </c>
       <c r="AB2" t="n">
-        <v>981.5100758336317</v>
+        <v>1103.874708942395</v>
       </c>
       <c r="AC2" t="n">
-        <v>887.8361317541124</v>
+        <v>998.5224560188167</v>
       </c>
       <c r="AD2" t="n">
-        <v>717350.1159041575</v>
+        <v>806781.9881838058</v>
       </c>
       <c r="AE2" t="n">
-        <v>981510.0758336317</v>
+        <v>1103874.708942395</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283241748154343e-06</v>
+        <v>2.750578115203652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.62065972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>887836.1317541124</v>
+        <v>998522.4560188167</v>
       </c>
     </row>
   </sheetData>
@@ -22013,28 +22013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1367.482030559813</v>
+        <v>1470.472032576543</v>
       </c>
       <c r="AB2" t="n">
-        <v>1871.049243261314</v>
+        <v>2011.964707618822</v>
       </c>
       <c r="AC2" t="n">
-        <v>1692.47892951856</v>
+        <v>1819.945619733884</v>
       </c>
       <c r="AD2" t="n">
-        <v>1367482.030559813</v>
+        <v>1470472.032576543</v>
       </c>
       <c r="AE2" t="n">
-        <v>1871049.243261314</v>
+        <v>2011964.707618822</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.14544972894839e-06</v>
+        <v>2.110413847940602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.80034722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1692478.92951856</v>
+        <v>1819945.619733884</v>
       </c>
     </row>
     <row r="3">
@@ -22119,28 +22119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>880.6912177074462</v>
+        <v>964.9247317740175</v>
       </c>
       <c r="AB3" t="n">
-        <v>1205.000577421722</v>
+        <v>1320.252587487974</v>
       </c>
       <c r="AC3" t="n">
-        <v>1089.997013541524</v>
+        <v>1194.249533524266</v>
       </c>
       <c r="AD3" t="n">
-        <v>880691.2177074462</v>
+        <v>964924.7317740174</v>
       </c>
       <c r="AE3" t="n">
-        <v>1205000.577421722</v>
+        <v>1320252.587487974</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.428885829761166e-06</v>
+        <v>2.632625741701086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.87239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1089997.013541524</v>
+        <v>1194249.533524266</v>
       </c>
     </row>
     <row r="4">
@@ -22225,28 +22225,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>837.0233472657692</v>
+        <v>912.0492990664043</v>
       </c>
       <c r="AB4" t="n">
-        <v>1145.25227059294</v>
+        <v>1247.90608775796</v>
       </c>
       <c r="AC4" t="n">
-        <v>1035.951001259206</v>
+        <v>1128.807682189534</v>
       </c>
       <c r="AD4" t="n">
-        <v>837023.3472657691</v>
+        <v>912049.2990664042</v>
       </c>
       <c r="AE4" t="n">
-        <v>1145252.27059294</v>
+        <v>1247906.08775796</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459298774206785e-06</v>
+        <v>2.688659540036006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.54253472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1035951.001259206</v>
+        <v>1128807.682189534</v>
       </c>
     </row>
   </sheetData>
@@ -22522,28 +22522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1900.911415108253</v>
+        <v>2007.677570412159</v>
       </c>
       <c r="AB2" t="n">
-        <v>2600.910860444043</v>
+        <v>2746.99302432119</v>
       </c>
       <c r="AC2" t="n">
-        <v>2352.683578324582</v>
+        <v>2484.823865508898</v>
       </c>
       <c r="AD2" t="n">
-        <v>1900911.415108253</v>
+        <v>2007677.570412159</v>
       </c>
       <c r="AE2" t="n">
-        <v>2600910.860444042</v>
+        <v>2746993.02432119</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.776481818739548e-07</v>
+        <v>1.7464971298345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.33506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2352683.578324582</v>
+        <v>2484823.865508898</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1149.087120271633</v>
+        <v>1236.425657585182</v>
       </c>
       <c r="AB3" t="n">
-        <v>1572.231692101581</v>
+        <v>1691.732131958307</v>
       </c>
       <c r="AC3" t="n">
-        <v>1422.180106048444</v>
+        <v>1530.275591645165</v>
       </c>
       <c r="AD3" t="n">
-        <v>1149087.120271632</v>
+        <v>1236425.657585182</v>
       </c>
       <c r="AE3" t="n">
-        <v>1572231.692101581</v>
+        <v>1691732.131958307</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.293099710298702e-06</v>
+        <v>2.310028264255163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.88802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1422180.106048444</v>
+        <v>1530275.591645165</v>
       </c>
     </row>
     <row r="4">
@@ -22734,28 +22734,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>949.260657791582</v>
+        <v>1026.800179518209</v>
       </c>
       <c r="AB4" t="n">
-        <v>1298.820310415034</v>
+        <v>1404.913304843675</v>
       </c>
       <c r="AC4" t="n">
-        <v>1174.862722894777</v>
+        <v>1270.830350837602</v>
       </c>
       <c r="AD4" t="n">
-        <v>949260.6577915821</v>
+        <v>1026800.179518209</v>
       </c>
       <c r="AE4" t="n">
-        <v>1298820.310415034</v>
+        <v>1404913.304843675</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.409620561946504e-06</v>
+        <v>2.518184262232556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.49045138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1174862.722894777</v>
+        <v>1270830.350837602</v>
       </c>
     </row>
     <row r="5">
@@ -22840,28 +22840,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>903.5956082459568</v>
+        <v>981.1351299725837</v>
       </c>
       <c r="AB5" t="n">
-        <v>1236.339375026907</v>
+        <v>1342.432369455548</v>
       </c>
       <c r="AC5" t="n">
-        <v>1118.344880287549</v>
+        <v>1214.312508230374</v>
       </c>
       <c r="AD5" t="n">
-        <v>903595.6082459568</v>
+        <v>981135.1299725837</v>
       </c>
       <c r="AE5" t="n">
-        <v>1236339.375026907</v>
+        <v>1342432.369455548</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.43517867621122e-06</v>
+        <v>2.563841968179238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.21484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1118344.880287549</v>
+        <v>1214312.508230374</v>
       </c>
     </row>
   </sheetData>
